--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H2">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N2">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O2">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P2">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q2">
-        <v>62.05108684389626</v>
+        <v>67.72100709249901</v>
       </c>
       <c r="R2">
-        <v>62.05108684389626</v>
+        <v>609.489063832491</v>
       </c>
       <c r="S2">
-        <v>0.01522659890948078</v>
+        <v>0.01540410343971538</v>
       </c>
       <c r="T2">
-        <v>0.01522659890948078</v>
+        <v>0.01540410343971538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H3">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N3">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O3">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P3">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q3">
-        <v>35.19244646522642</v>
+        <v>38.34113613601856</v>
       </c>
       <c r="R3">
-        <v>35.19244646522642</v>
+        <v>345.070225224167</v>
       </c>
       <c r="S3">
-        <v>0.00863580791610402</v>
+        <v>0.008721235143900524</v>
       </c>
       <c r="T3">
-        <v>0.00863580791610402</v>
+        <v>0.008721235143900526</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H4">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N4">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O4">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P4">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q4">
-        <v>10.71286225099247</v>
+        <v>12.65837756919511</v>
       </c>
       <c r="R4">
-        <v>10.71286225099247</v>
+        <v>113.925398122756</v>
       </c>
       <c r="S4">
-        <v>0.002628809017942694</v>
+        <v>0.002879327491224686</v>
       </c>
       <c r="T4">
-        <v>0.002628809017942694</v>
+        <v>0.002879327491224687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H5">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N5">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O5">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P5">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q5">
-        <v>1.765634198012512</v>
+        <v>3.573379791266666</v>
       </c>
       <c r="R5">
-        <v>1.765634198012512</v>
+        <v>32.1604181214</v>
       </c>
       <c r="S5">
-        <v>0.0004332656383865391</v>
+        <v>0.0008128159089376153</v>
       </c>
       <c r="T5">
-        <v>0.0004332656383865391</v>
+        <v>0.0008128159089376155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H6">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N6">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O6">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P6">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q6">
-        <v>1924.090682393138</v>
+        <v>1935.690556857399</v>
       </c>
       <c r="R6">
-        <v>1924.090682393138</v>
+        <v>17421.21501171659</v>
       </c>
       <c r="S6">
-        <v>0.4721489755686908</v>
+        <v>0.4403002678974384</v>
       </c>
       <c r="T6">
-        <v>0.4721489755686908</v>
+        <v>0.4403002678974384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H7">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N7">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O7">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P7">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q7">
-        <v>1091.253381342219</v>
+        <v>1095.916589903985</v>
       </c>
       <c r="R7">
-        <v>1091.253381342219</v>
+        <v>9863.249309135866</v>
       </c>
       <c r="S7">
-        <v>0.2677806045221126</v>
+        <v>0.2492817699701779</v>
       </c>
       <c r="T7">
-        <v>0.2677806045221126</v>
+        <v>0.249281769970178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H8">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N8">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O8">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P8">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q8">
-        <v>332.1862595372634</v>
+        <v>361.8183334509284</v>
       </c>
       <c r="R8">
-        <v>332.1862595372634</v>
+        <v>3256.365001058356</v>
       </c>
       <c r="S8">
-        <v>0.08151455831771845</v>
+        <v>0.08230071102236855</v>
       </c>
       <c r="T8">
-        <v>0.08151455831771845</v>
+        <v>0.08230071102236856</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H9">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N9">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O9">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P9">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q9">
-        <v>54.74908630459758</v>
+        <v>102.1390232512667</v>
       </c>
       <c r="R9">
-        <v>54.74908630459758</v>
+        <v>919.2512092613999</v>
       </c>
       <c r="S9">
-        <v>0.01343477479964006</v>
+        <v>0.02323296930958187</v>
       </c>
       <c r="T9">
-        <v>0.01343477479964006</v>
+        <v>0.02323296930958188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H10">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N10">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O10">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P10">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q10">
-        <v>24.80455493722616</v>
+        <v>25.557369919821</v>
       </c>
       <c r="R10">
-        <v>24.80455493722616</v>
+        <v>230.016329278389</v>
       </c>
       <c r="S10">
-        <v>0.006086742849605312</v>
+        <v>0.005813386226732578</v>
       </c>
       <c r="T10">
-        <v>0.006086742849605312</v>
+        <v>0.005813386226732579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H11">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N11">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O11">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P11">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q11">
-        <v>14.06797231317096</v>
+        <v>14.46964009315478</v>
       </c>
       <c r="R11">
-        <v>14.06797231317096</v>
+        <v>130.226760838393</v>
       </c>
       <c r="S11">
-        <v>0.003452113134153838</v>
+        <v>0.003291324838479805</v>
       </c>
       <c r="T11">
-        <v>0.003452113134153838</v>
+        <v>0.003291324838479806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H12">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N12">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O12">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P12">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q12">
-        <v>4.28240331886818</v>
+        <v>4.777171102591555</v>
       </c>
       <c r="R12">
-        <v>4.28240331886818</v>
+        <v>42.99453992332399</v>
       </c>
       <c r="S12">
-        <v>0.001050850855667957</v>
+        <v>0.001086635314106106</v>
       </c>
       <c r="T12">
-        <v>0.001050850855667957</v>
+        <v>0.001086635314106106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H13">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N13">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O13">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P13">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q13">
-        <v>0.705801827030442</v>
+        <v>1.348565136733333</v>
       </c>
       <c r="R13">
-        <v>0.705801827030442</v>
+        <v>12.1370862306</v>
       </c>
       <c r="S13">
-        <v>0.0001731953762036065</v>
+        <v>0.0003067502648485437</v>
       </c>
       <c r="T13">
-        <v>0.0001731953762036065</v>
+        <v>0.0003067502648485438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H14">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.9710851728195</v>
+        <v>34.071057</v>
       </c>
       <c r="N14">
-        <v>33.9710851728195</v>
+        <v>102.213171</v>
       </c>
       <c r="O14">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="P14">
-        <v>0.5655298847522443</v>
+        <v>0.5537562116045693</v>
       </c>
       <c r="Q14">
-        <v>293.6880987979259</v>
+        <v>405.507598980759</v>
       </c>
       <c r="R14">
-        <v>293.6880987979259</v>
+        <v>3649.568390826831</v>
       </c>
       <c r="S14">
-        <v>0.07206756742446749</v>
+        <v>0.09223845404068295</v>
       </c>
       <c r="T14">
-        <v>0.07206756742446749</v>
+        <v>0.09223845404068295</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H15">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.2667954280594</v>
+        <v>19.28977566666667</v>
       </c>
       <c r="N15">
-        <v>19.2667954280594</v>
+        <v>57.869327</v>
       </c>
       <c r="O15">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556734</v>
       </c>
       <c r="P15">
-        <v>0.3207418468543191</v>
+        <v>0.3135163401556735</v>
       </c>
       <c r="Q15">
-        <v>166.5660219686677</v>
+        <v>229.5834442549719</v>
       </c>
       <c r="R15">
-        <v>166.5660219686677</v>
+        <v>2066.250998294747</v>
       </c>
       <c r="S15">
-        <v>0.04087332128194864</v>
+        <v>0.05222201020311514</v>
       </c>
       <c r="T15">
-        <v>0.04087332128194864</v>
+        <v>0.05222201020311515</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H16">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.86496666671917</v>
+        <v>6.368545333333333</v>
       </c>
       <c r="N16">
-        <v>5.86496666671917</v>
+        <v>19.105636</v>
       </c>
       <c r="O16">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="P16">
-        <v>0.09763638418472581</v>
+        <v>0.1035078406055505</v>
       </c>
       <c r="Q16">
-        <v>50.70402965049002</v>
+        <v>75.79728234202177</v>
       </c>
       <c r="R16">
-        <v>50.70402965049002</v>
+        <v>682.1755410781959</v>
       </c>
       <c r="S16">
-        <v>0.01244216599339672</v>
+        <v>0.01724116677785114</v>
       </c>
       <c r="T16">
-        <v>0.01244216599339672</v>
+        <v>0.01724116677785114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H17">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.966631090211532</v>
+        <v>1.7978</v>
       </c>
       <c r="N17">
-        <v>0.966631090211532</v>
+        <v>5.3934</v>
       </c>
       <c r="O17">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="P17">
-        <v>0.01609188420871081</v>
+        <v>0.02921960763420679</v>
       </c>
       <c r="Q17">
-        <v>8.356755331158276</v>
+        <v>21.39709259526666</v>
       </c>
       <c r="R17">
-        <v>8.356755331158276</v>
+        <v>192.5738333574</v>
       </c>
       <c r="S17">
-        <v>0.002050648394480603</v>
+        <v>0.004867072150838754</v>
       </c>
       <c r="T17">
-        <v>0.002050648394480603</v>
+        <v>0.004867072150838755</v>
       </c>
     </row>
   </sheetData>
